--- a/Industrial Training 2025 - Nomination Form.xlsx
+++ b/Industrial Training 2025 - Nomination Form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandi\Tech\Intel Unnati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Tech\GithubRepositories\AI-Powered-Form-filling-Assistant-for-indian-citizens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C426395-E86B-4491-82E7-3C5E353D5128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2E8915-1C19-4498-BCFC-16594FA594D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FB2A323-ADD4-4B66-80D6-DD7DCEC3DC0E}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>deepsuman.dev@mckvie.edu.in</t>
   </si>
   <si>
-    <t>SmartSeva3</t>
-  </si>
-  <si>
     <t>3 students</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>puspen.lahiri@mckvie.edu.in</t>
+  </si>
+  <si>
+    <t>SmartSeva</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968FED77-619A-486C-A8C9-51366628B8B5}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="164" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,25 +820,25 @@
         <v>9674709542</v>
       </c>
       <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="N4">
         <v>8272942019</v>
@@ -847,16 +847,16 @@
         <v>9.4700000000000006</v>
       </c>
       <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="R4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="U4">
         <v>7003623829</v>
@@ -865,16 +865,16 @@
         <v>9.57</v>
       </c>
       <c r="X4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="AB4">
         <v>7478316125</v>
@@ -883,13 +883,13 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="AE4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF4" t="s">
         <v>30</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH4">
         <v>9831106573</v>
